--- a/src/main/resources/static/app/fyp/common/downLoadFile.xlsx
+++ b/src/main/resources/static/app/fyp/common/downLoadFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>提出人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>问题分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决时限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -452,7 +456,8 @@
     <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="30.125" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="8" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="19" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
@@ -474,22 +479,44 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
       <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
